--- a/Reference/API 명세서.xlsx
+++ b/Reference/API 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\janghojin\WebStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\janghojin\WebStudy\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1833,19 +1833,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1853,180 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2475,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2492,34 +2492,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
@@ -2542,62 +2542,62 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
@@ -2612,10 +2612,10 @@
       <c r="E11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="84"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
@@ -2630,62 +2630,62 @@
       <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="87"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="84"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
@@ -2700,10 +2700,10 @@
       <c r="E18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="57"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
@@ -2718,7 +2718,7 @@
       <c r="E19" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="58" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="47"/>
@@ -2736,7 +2736,7 @@
       <c r="E20" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="46" t="s">
         <v>200</v>
       </c>
       <c r="G20" s="47"/>
@@ -2754,18 +2754,18 @@
       <c r="E21" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="46" t="s">
         <v>201</v>
       </c>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
@@ -2779,80 +2779,80 @@
         <v>122</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="58" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="62" t="s">
@@ -2865,14 +2865,14 @@
       <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="62" t="s">
@@ -2888,34 +2888,34 @@
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="79"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="70"/>
     </row>
     <row r="39" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -2938,62 +2938,62 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="84"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86" t="s">
+      <c r="E44" s="48"/>
+      <c r="F44" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="87"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
@@ -3008,10 +3008,10 @@
       <c r="E46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
@@ -3026,10 +3026,10 @@
       <c r="E47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="109" t="s">
+      <c r="F47" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="110"/>
+      <c r="G47" s="82"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
@@ -3045,62 +3045,62 @@
       <c r="E48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="87"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83" t="s">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83" t="s">
+      <c r="E51" s="56"/>
+      <c r="F51" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="84"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="20" t="s">
@@ -3115,10 +3115,10 @@
       <c r="E54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="83" t="s">
+      <c r="F54" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="84"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="15" t="s">
@@ -3133,7 +3133,7 @@
       <c r="E55" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="58" t="s">
         <v>199</v>
       </c>
       <c r="G55" s="47"/>
@@ -3151,7 +3151,7 @@
       <c r="E56" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="46" t="s">
         <v>200</v>
       </c>
       <c r="G56" s="47"/>
@@ -3169,30 +3169,30 @@
       <c r="E57" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="46" t="s">
         <v>201</v>
       </c>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="25" t="s">
@@ -3207,7 +3207,7 @@
       <c r="E60" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="46" t="s">
         <v>183</v>
       </c>
       <c r="G60" s="47"/>
@@ -3225,7 +3225,7 @@
       <c r="E61" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="46" t="s">
         <v>182</v>
       </c>
       <c r="G61" s="47"/>
@@ -3243,7 +3243,7 @@
       <c r="E62" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="46" t="s">
         <v>185</v>
       </c>
       <c r="G62" s="47"/>
@@ -3261,7 +3261,7 @@
       <c r="E63" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="46" t="s">
         <v>186</v>
       </c>
       <c r="G63" s="47"/>
@@ -3279,7 +3279,7 @@
       <c r="E64" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="46" t="s">
         <v>187</v>
       </c>
       <c r="G64" s="47"/>
@@ -3297,7 +3297,7 @@
       <c r="E65" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="46" t="s">
         <v>207</v>
       </c>
       <c r="G65" s="47"/>
@@ -3315,7 +3315,7 @@
       <c r="E66" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="46" t="s">
         <v>184</v>
       </c>
       <c r="G66" s="47"/>
@@ -3333,7 +3333,7 @@
       <c r="E67" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="46" t="s">
         <v>188</v>
       </c>
       <c r="G67" s="47"/>
@@ -3351,7 +3351,7 @@
       <c r="E68" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="54" t="s">
+      <c r="F68" s="46" t="s">
         <v>189</v>
       </c>
       <c r="G68" s="47"/>
@@ -3369,20 +3369,20 @@
       <c r="E69" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="46" t="s">
         <v>190</v>
       </c>
       <c r="G69" s="47"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="25" t="s">
@@ -3397,7 +3397,7 @@
       <c r="E71" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="104" t="s">
         <v>154</v>
       </c>
       <c r="G71" s="47"/>
@@ -3415,10 +3415,10 @@
       <c r="E72" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F72" s="57" t="s">
+      <c r="F72" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="58"/>
+      <c r="G72" s="106"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
@@ -3433,10 +3433,10 @@
       <c r="E73" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="G73" s="58"/>
+      <c r="G73" s="106"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="25" t="s">
@@ -3451,10 +3451,10 @@
       <c r="E74" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F74" s="57" t="s">
+      <c r="F74" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="G74" s="58"/>
+      <c r="G74" s="106"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="25" t="s">
@@ -3469,7 +3469,7 @@
       <c r="E75" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="104" t="s">
         <v>147</v>
       </c>
       <c r="G75" s="47"/>
@@ -3487,7 +3487,7 @@
       <c r="E76" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="104" t="s">
         <v>148</v>
       </c>
       <c r="G76" s="47"/>
@@ -3505,20 +3505,20 @@
       <c r="E77" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="F77" s="104" t="s">
         <v>149</v>
       </c>
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="25" t="s">
@@ -3533,7 +3533,7 @@
       <c r="E79" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F79" s="53" t="s">
+      <c r="F79" s="104" t="s">
         <v>155</v>
       </c>
       <c r="G79" s="47"/>
@@ -3551,7 +3551,7 @@
       <c r="E80" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="58" t="s">
         <v>156</v>
       </c>
       <c r="G80" s="47"/>
@@ -3569,7 +3569,7 @@
       <c r="E81" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="58" t="s">
         <v>157</v>
       </c>
       <c r="G81" s="47"/>
@@ -3587,20 +3587,20 @@
       <c r="E82" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="58" t="s">
         <v>158</v>
       </c>
       <c r="G82" s="47"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="25" t="s">
@@ -3615,7 +3615,7 @@
       <c r="E84" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F84" s="53" t="s">
+      <c r="F84" s="104" t="s">
         <v>161</v>
       </c>
       <c r="G84" s="47"/>
@@ -3633,7 +3633,7 @@
       <c r="E85" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F85" s="53" t="s">
+      <c r="F85" s="104" t="s">
         <v>198</v>
       </c>
       <c r="G85" s="47"/>
@@ -3651,10 +3651,10 @@
       <c r="E86" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F86" s="51" t="s">
+      <c r="F86" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="G86" s="52"/>
+      <c r="G86" s="110"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="25" t="s">
@@ -3669,10 +3669,10 @@
       <c r="E87" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="51" t="s">
+      <c r="F87" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="G87" s="52"/>
+      <c r="G87" s="110"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="25" t="s">
@@ -3687,10 +3687,10 @@
       <c r="E88" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F88" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="G88" s="52"/>
+      <c r="G88" s="110"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
@@ -3705,80 +3705,80 @@
       <c r="E89" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="52"/>
+      <c r="G89" s="110"/>
     </row>
     <row r="90" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="67"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="75"/>
     </row>
     <row r="91" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="75"/>
     </row>
     <row r="92" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="70"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="61"/>
     </row>
     <row r="93" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="67"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="75"/>
     </row>
     <row r="94" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="61"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="55"/>
     </row>
     <row r="95" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="107"/>
-      <c r="D95" s="107"/>
-      <c r="E95" s="107"/>
-      <c r="F95" s="107"/>
-      <c r="G95" s="108"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="84"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="61"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="55"/>
     </row>
     <row r="97" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="62" t="s">
@@ -3791,14 +3791,14 @@
       <c r="G97" s="64"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="61"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="55"/>
     </row>
     <row r="99" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="62" t="s">
@@ -3812,34 +3812,34 @@
     </row>
     <row r="102" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="76"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="67"/>
     </row>
     <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="77" t="s">
+      <c r="B104" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="78"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="79"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="70"/>
     </row>
     <row r="105" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="81"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="72"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="17" t="s">
@@ -3862,62 +3862,62 @@
       </c>
     </row>
     <row r="107" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="67"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="59" t="s">
+      <c r="B108" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="61"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="55"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83" t="s">
+      <c r="C109" s="56"/>
+      <c r="D109" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83" t="s">
+      <c r="E109" s="56"/>
+      <c r="F109" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="84"/>
+      <c r="G109" s="57"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="86"/>
-      <c r="D110" s="86" t="s">
+      <c r="C110" s="48"/>
+      <c r="D110" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86" t="s">
+      <c r="E110" s="48"/>
+      <c r="F110" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G110" s="87"/>
+      <c r="G110" s="49"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="61"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="55"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="20" t="s">
@@ -3932,10 +3932,10 @@
       <c r="E112" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="83" t="s">
+      <c r="F112" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G112" s="84"/>
+      <c r="G112" s="57"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="15" t="s">
@@ -3950,62 +3950,62 @@
       <c r="E113" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F113" s="86" t="s">
+      <c r="F113" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="87"/>
+      <c r="G113" s="49"/>
     </row>
     <row r="114" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="67"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="75"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="61"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="55"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="82" t="s">
+      <c r="B116" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83" t="s">
+      <c r="C116" s="56"/>
+      <c r="D116" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83" t="s">
+      <c r="E116" s="56"/>
+      <c r="F116" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="84"/>
+      <c r="G116" s="57"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="85"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="87"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="49"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="59" t="s">
+      <c r="B118" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="61"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="55"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="20" t="s">
@@ -4020,10 +4020,10 @@
       <c r="E119" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="83" t="s">
+      <c r="F119" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G119" s="84"/>
+      <c r="G119" s="57"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="15" t="s">
@@ -4038,7 +4038,7 @@
       <c r="E120" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="58" t="s">
         <v>199</v>
       </c>
       <c r="G120" s="47"/>
@@ -4056,7 +4056,7 @@
       <c r="E121" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="46" t="s">
         <v>200</v>
       </c>
       <c r="G121" s="47"/>
@@ -4074,30 +4074,30 @@
       <c r="E122" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="46" t="s">
         <v>201</v>
       </c>
       <c r="G122" s="47"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="50"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="52"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="104" t="s">
+      <c r="B124" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="106"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="101"/>
+      <c r="G124" s="102"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="25" t="s">
@@ -4112,7 +4112,7 @@
       <c r="E125" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="46" t="s">
         <v>183</v>
       </c>
       <c r="G125" s="47"/>
@@ -4130,7 +4130,7 @@
       <c r="E126" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="46" t="s">
         <v>182</v>
       </c>
       <c r="G126" s="47"/>
@@ -4148,7 +4148,7 @@
       <c r="E127" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="46" t="s">
         <v>185</v>
       </c>
       <c r="G127" s="47"/>
@@ -4166,7 +4166,7 @@
       <c r="E128" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="46" t="s">
         <v>186</v>
       </c>
       <c r="G128" s="47"/>
@@ -4184,7 +4184,7 @@
       <c r="E129" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="46" t="s">
         <v>187</v>
       </c>
       <c r="G129" s="47"/>
@@ -4202,7 +4202,7 @@
       <c r="E130" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="46" t="s">
         <v>207</v>
       </c>
       <c r="G130" s="47"/>
@@ -4220,7 +4220,7 @@
       <c r="E131" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="46" t="s">
         <v>184</v>
       </c>
       <c r="G131" s="47"/>
@@ -4238,7 +4238,7 @@
       <c r="E132" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F132" s="54" t="s">
+      <c r="F132" s="46" t="s">
         <v>188</v>
       </c>
       <c r="G132" s="47"/>
@@ -4256,7 +4256,7 @@
       <c r="E133" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="46" t="s">
         <v>189</v>
       </c>
       <c r="G133" s="47"/>
@@ -4274,20 +4274,20 @@
       <c r="E134" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="46" t="s">
         <v>190</v>
       </c>
       <c r="G134" s="47"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="50"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="52"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="25" t="s">
@@ -4302,7 +4302,7 @@
       <c r="E136" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F136" s="53" t="s">
+      <c r="F136" s="104" t="s">
         <v>154</v>
       </c>
       <c r="G136" s="47"/>
@@ -4320,10 +4320,10 @@
       <c r="E137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F137" s="57" t="s">
+      <c r="F137" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="G137" s="58"/>
+      <c r="G137" s="106"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="25" t="s">
@@ -4338,10 +4338,10 @@
       <c r="E138" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F138" s="57" t="s">
+      <c r="F138" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="G138" s="58"/>
+      <c r="G138" s="106"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="25" t="s">
@@ -4356,7 +4356,7 @@
       <c r="E139" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F139" s="53" t="s">
+      <c r="F139" s="104" t="s">
         <v>146</v>
       </c>
       <c r="G139" s="47"/>
@@ -4374,7 +4374,7 @@
       <c r="E140" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F140" s="53" t="s">
+      <c r="F140" s="104" t="s">
         <v>147</v>
       </c>
       <c r="G140" s="47"/>
@@ -4392,7 +4392,7 @@
       <c r="E141" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F141" s="53" t="s">
+      <c r="F141" s="104" t="s">
         <v>148</v>
       </c>
       <c r="G141" s="47"/>
@@ -4410,20 +4410,20 @@
       <c r="E142" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F142" s="53" t="s">
+      <c r="F142" s="104" t="s">
         <v>149</v>
       </c>
       <c r="G142" s="47"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="50"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="52"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="25" t="s">
@@ -4438,7 +4438,7 @@
       <c r="E144" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F144" s="53" t="s">
+      <c r="F144" s="104" t="s">
         <v>155</v>
       </c>
       <c r="G144" s="47"/>
@@ -4456,7 +4456,7 @@
       <c r="E145" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F145" s="46" t="s">
+      <c r="F145" s="58" t="s">
         <v>156</v>
       </c>
       <c r="G145" s="47"/>
@@ -4474,7 +4474,7 @@
       <c r="E146" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F146" s="46" t="s">
+      <c r="F146" s="58" t="s">
         <v>157</v>
       </c>
       <c r="G146" s="47"/>
@@ -4492,20 +4492,20 @@
       <c r="E147" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F147" s="46" t="s">
+      <c r="F147" s="58" t="s">
         <v>158</v>
       </c>
       <c r="G147" s="47"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C148" s="49"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="50"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="52"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="25" t="s">
@@ -4520,7 +4520,7 @@
       <c r="E149" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F149" s="53" t="s">
+      <c r="F149" s="104" t="s">
         <v>161</v>
       </c>
       <c r="G149" s="47"/>
@@ -4538,7 +4538,7 @@
       <c r="E150" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F150" s="53" t="s">
+      <c r="F150" s="104" t="s">
         <v>198</v>
       </c>
       <c r="G150" s="47"/>
@@ -4556,10 +4556,10 @@
       <c r="E151" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F151" s="51" t="s">
+      <c r="F151" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="G151" s="52"/>
+      <c r="G151" s="110"/>
     </row>
     <row r="152" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="25" t="s">
@@ -4574,10 +4574,10 @@
       <c r="E152" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F152" s="51" t="s">
+      <c r="F152" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="G152" s="52"/>
+      <c r="G152" s="110"/>
     </row>
     <row r="153" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
@@ -4592,10 +4592,10 @@
       <c r="E153" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F153" s="51" t="s">
+      <c r="F153" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="G153" s="52"/>
+      <c r="G153" s="110"/>
     </row>
     <row r="154" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="25" t="s">
@@ -4610,50 +4610,50 @@
       <c r="E154" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F154" s="51" t="s">
+      <c r="F154" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="G154" s="52"/>
+      <c r="G154" s="110"/>
     </row>
     <row r="155" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="95" t="s">
+      <c r="B155" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="97"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="93"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="95" t="s">
+      <c r="B156" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="96"/>
-      <c r="D156" s="96"/>
-      <c r="E156" s="96"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="97"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="93"/>
     </row>
     <row r="157" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="98" t="s">
+      <c r="B157" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C157" s="99"/>
-      <c r="D157" s="99"/>
-      <c r="E157" s="99"/>
-      <c r="F157" s="99"/>
-      <c r="G157" s="100"/>
+      <c r="C157" s="95"/>
+      <c r="D157" s="95"/>
+      <c r="E157" s="95"/>
+      <c r="F157" s="95"/>
+      <c r="G157" s="96"/>
     </row>
     <row r="158" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B158" s="95" t="s">
+      <c r="B158" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
-      <c r="G158" s="97"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="93"/>
     </row>
     <row r="159" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="30" t="s">
@@ -4666,14 +4666,14 @@
       <c r="G159" s="32"/>
     </row>
     <row r="160" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="101" t="s">
+      <c r="B160" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C160" s="102"/>
-      <c r="D160" s="102"/>
-      <c r="E160" s="102"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="103"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="98"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="99"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="30" t="s">
@@ -4686,65 +4686,65 @@
       <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="89" t="s">
+      <c r="B162" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C162" s="90"/>
-      <c r="D162" s="90"/>
-      <c r="E162" s="90"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="91"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="86"/>
+      <c r="F162" s="86"/>
+      <c r="G162" s="87"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B163" s="92" t="s">
+      <c r="B163" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="93"/>
-      <c r="D163" s="93"/>
-      <c r="E163" s="93"/>
-      <c r="F163" s="93"/>
-      <c r="G163" s="94"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89"/>
+      <c r="F163" s="89"/>
+      <c r="G163" s="90"/>
     </row>
     <row r="164" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="89" t="s">
+      <c r="B164" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C164" s="90"/>
-      <c r="D164" s="90"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="91"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="86"/>
+      <c r="E164" s="86"/>
+      <c r="F164" s="86"/>
+      <c r="G164" s="87"/>
     </row>
     <row r="167" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="168" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="74" t="s">
+      <c r="B168" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="76"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="67"/>
     </row>
     <row r="169" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="77" t="s">
+      <c r="B169" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
-      <c r="E169" s="78"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="79"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B170" s="68" t="s">
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="70"/>
+    </row>
+    <row r="170" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C170" s="80"/>
-      <c r="D170" s="80"/>
-      <c r="E170" s="80"/>
-      <c r="F170" s="80"/>
-      <c r="G170" s="81"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
@@ -4767,62 +4767,62 @@
       </c>
     </row>
     <row r="172" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B172" s="65" t="s">
+      <c r="B172" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="66"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="67"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="75"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B173" s="59" t="s">
+      <c r="B173" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="61"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="55"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B174" s="82" t="s">
+      <c r="B174" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C174" s="83"/>
-      <c r="D174" s="83" t="s">
+      <c r="C174" s="56"/>
+      <c r="D174" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E174" s="83"/>
-      <c r="F174" s="83" t="s">
+      <c r="E174" s="56"/>
+      <c r="F174" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G174" s="84"/>
+      <c r="G174" s="57"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B175" s="85" t="s">
+      <c r="B175" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C175" s="86"/>
-      <c r="D175" s="86" t="s">
+      <c r="C175" s="48"/>
+      <c r="D175" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E175" s="86"/>
-      <c r="F175" s="86" t="s">
+      <c r="E175" s="48"/>
+      <c r="F175" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G175" s="87"/>
+      <c r="G175" s="49"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B176" s="59" t="s">
+      <c r="B176" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="61"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="54"/>
+      <c r="F176" s="54"/>
+      <c r="G176" s="55"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="20" t="s">
@@ -4837,10 +4837,10 @@
       <c r="E177" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F177" s="83" t="s">
+      <c r="F177" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G177" s="84"/>
+      <c r="G177" s="57"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="15" t="s">
@@ -4855,62 +4855,62 @@
       <c r="E178" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F178" s="86" t="s">
+      <c r="F178" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G178" s="87"/>
+      <c r="G178" s="49"/>
     </row>
     <row r="179" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B179" s="65" t="s">
+      <c r="B179" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C179" s="66"/>
-      <c r="D179" s="66"/>
-      <c r="E179" s="66"/>
-      <c r="F179" s="66"/>
-      <c r="G179" s="67"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="75"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B180" s="59" t="s">
+      <c r="B180" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="61"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="55"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B181" s="82" t="s">
+      <c r="B181" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C181" s="83"/>
-      <c r="D181" s="83" t="s">
+      <c r="C181" s="56"/>
+      <c r="D181" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83" t="s">
+      <c r="E181" s="56"/>
+      <c r="F181" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G181" s="84"/>
+      <c r="G181" s="57"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B182" s="85"/>
-      <c r="C182" s="86"/>
-      <c r="D182" s="86"/>
-      <c r="E182" s="86"/>
-      <c r="F182" s="86"/>
-      <c r="G182" s="87"/>
+      <c r="B182" s="77"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="49"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B183" s="59" t="s">
+      <c r="B183" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C183" s="60"/>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="61"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="55"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="20" t="s">
@@ -4925,25 +4925,25 @@
       <c r="E184" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F184" s="83" t="s">
+      <c r="F184" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G184" s="84"/>
+      <c r="G184" s="57"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="25"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="86"/>
-      <c r="G185" s="87"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="49"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="25"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="46"/>
+      <c r="F186" s="58"/>
       <c r="G186" s="47"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.3">
@@ -4951,23 +4951,23 @@
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="58"/>
       <c r="G187" s="47"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B188" s="48"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="50"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="51"/>
+      <c r="E188" s="51"/>
+      <c r="F188" s="51"/>
+      <c r="G188" s="52"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="25"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="58"/>
       <c r="G189" s="47"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.3">
@@ -4975,7 +4975,7 @@
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="58"/>
       <c r="G190" s="47"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.3">
@@ -4983,86 +4983,86 @@
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
-      <c r="F191" s="55"/>
-      <c r="G191" s="56"/>
+      <c r="F191" s="107"/>
+      <c r="G191" s="108"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="25"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
-      <c r="F192" s="46"/>
+      <c r="F192" s="58"/>
       <c r="G192" s="47"/>
     </row>
     <row r="193" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="65" t="s">
+      <c r="B193" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C193" s="66"/>
-      <c r="D193" s="66"/>
-      <c r="E193" s="66"/>
-      <c r="F193" s="66"/>
-      <c r="G193" s="67"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="74"/>
+      <c r="E193" s="74"/>
+      <c r="F193" s="74"/>
+      <c r="G193" s="75"/>
     </row>
     <row r="194" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="65" t="s">
+      <c r="B194" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C194" s="66"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="66"/>
-      <c r="G194" s="67"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+      <c r="G194" s="75"/>
     </row>
     <row r="195" spans="2:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="68" t="s">
+      <c r="B195" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C195" s="69"/>
-      <c r="D195" s="69"/>
-      <c r="E195" s="69"/>
-      <c r="F195" s="69"/>
-      <c r="G195" s="70"/>
+      <c r="C195" s="60"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="60"/>
+      <c r="F195" s="60"/>
+      <c r="G195" s="61"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="65" t="s">
+      <c r="B196" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="66"/>
-      <c r="D196" s="66"/>
-      <c r="E196" s="66"/>
-      <c r="F196" s="66"/>
-      <c r="G196" s="67"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="74"/>
+      <c r="G196" s="75"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B197" s="59" t="s">
+      <c r="B197" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="60"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="61"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="55"/>
     </row>
     <row r="198" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="71" t="s">
+      <c r="B198" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="73"/>
+      <c r="C198" s="79"/>
+      <c r="D198" s="79"/>
+      <c r="E198" s="79"/>
+      <c r="F198" s="79"/>
+      <c r="G198" s="80"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B199" s="59" t="s">
+      <c r="B199" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="61"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="54"/>
+      <c r="G199" s="55"/>
     </row>
     <row r="200" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B200" s="62" t="s">
@@ -5075,14 +5075,14 @@
       <c r="G200" s="64"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B201" s="59" t="s">
+      <c r="B201" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="61"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="55"/>
     </row>
     <row r="202" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B202" s="62" t="s">
@@ -5096,34 +5096,34 @@
     </row>
     <row r="205" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="206" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="74" t="s">
+      <c r="B206" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C206" s="75"/>
-      <c r="D206" s="75"/>
-      <c r="E206" s="75"/>
-      <c r="F206" s="75"/>
-      <c r="G206" s="76"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="66"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="67"/>
     </row>
     <row r="207" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="77" t="s">
+      <c r="B207" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C207" s="78"/>
-      <c r="D207" s="78"/>
-      <c r="E207" s="78"/>
-      <c r="F207" s="78"/>
-      <c r="G207" s="79"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="69"/>
+      <c r="E207" s="69"/>
+      <c r="F207" s="69"/>
+      <c r="G207" s="70"/>
     </row>
     <row r="208" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="68" t="s">
+      <c r="B208" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="80"/>
-      <c r="D208" s="80"/>
-      <c r="E208" s="80"/>
-      <c r="F208" s="80"/>
-      <c r="G208" s="81"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="71"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="71"/>
+      <c r="G208" s="72"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="17" t="s">
@@ -5146,62 +5146,62 @@
       </c>
     </row>
     <row r="210" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B210" s="65" t="s">
+      <c r="B210" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="66"/>
-      <c r="D210" s="66"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="66"/>
-      <c r="G210" s="67"/>
+      <c r="C210" s="74"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
+      <c r="F210" s="74"/>
+      <c r="G210" s="75"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B211" s="59" t="s">
+      <c r="B211" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="61"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="55"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B212" s="82" t="s">
+      <c r="B212" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="83"/>
-      <c r="D212" s="83" t="s">
+      <c r="C212" s="56"/>
+      <c r="D212" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="83"/>
-      <c r="F212" s="83" t="s">
+      <c r="E212" s="56"/>
+      <c r="F212" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G212" s="84"/>
+      <c r="G212" s="57"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B213" s="85" t="s">
+      <c r="B213" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C213" s="86"/>
-      <c r="D213" s="86" t="s">
+      <c r="C213" s="48"/>
+      <c r="D213" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E213" s="86"/>
-      <c r="F213" s="86" t="s">
+      <c r="E213" s="48"/>
+      <c r="F213" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G213" s="87"/>
+      <c r="G213" s="49"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B214" s="59" t="s">
+      <c r="B214" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C214" s="60"/>
-      <c r="D214" s="60"/>
-      <c r="E214" s="60"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="61"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="54"/>
+      <c r="F214" s="54"/>
+      <c r="G214" s="55"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="20" t="s">
@@ -5216,70 +5216,70 @@
       <c r="E215" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F215" s="83" t="s">
+      <c r="F215" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G215" s="84"/>
+      <c r="G215" s="57"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
-      <c r="F216" s="86"/>
-      <c r="G216" s="87"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="49"/>
     </row>
     <row r="217" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B217" s="65" t="s">
+      <c r="B217" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C217" s="66"/>
-      <c r="D217" s="66"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="66"/>
-      <c r="G217" s="67"/>
+      <c r="C217" s="74"/>
+      <c r="D217" s="74"/>
+      <c r="E217" s="74"/>
+      <c r="F217" s="74"/>
+      <c r="G217" s="75"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B218" s="59" t="s">
+      <c r="B218" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C218" s="60"/>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="61"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="54"/>
+      <c r="E218" s="54"/>
+      <c r="F218" s="54"/>
+      <c r="G218" s="55"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B219" s="82" t="s">
+      <c r="B219" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="83"/>
-      <c r="D219" s="83" t="s">
+      <c r="C219" s="56"/>
+      <c r="D219" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E219" s="83"/>
-      <c r="F219" s="83" t="s">
+      <c r="E219" s="56"/>
+      <c r="F219" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G219" s="84"/>
+      <c r="G219" s="57"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B220" s="85"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="86"/>
-      <c r="F220" s="86"/>
-      <c r="G220" s="87"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="48"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="49"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B221" s="59" t="s">
+      <c r="B221" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="61"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="54"/>
+      <c r="G221" s="55"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="20" t="s">
@@ -5294,25 +5294,25 @@
       <c r="E222" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F222" s="83" t="s">
+      <c r="F222" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G222" s="84"/>
+      <c r="G222" s="57"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="25"/>
       <c r="C223" s="26"/>
       <c r="D223" s="23"/>
       <c r="E223" s="23"/>
-      <c r="F223" s="88"/>
-      <c r="G223" s="87"/>
+      <c r="F223" s="103"/>
+      <c r="G223" s="49"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="25"/>
       <c r="C224" s="26"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
-      <c r="F224" s="46"/>
+      <c r="F224" s="58"/>
       <c r="G224" s="47"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.3">
@@ -5320,23 +5320,23 @@
       <c r="C225" s="26"/>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
-      <c r="F225" s="46"/>
+      <c r="F225" s="58"/>
       <c r="G225" s="47"/>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B226" s="48"/>
-      <c r="C226" s="49"/>
-      <c r="D226" s="49"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="50"/>
+      <c r="B226" s="50"/>
+      <c r="C226" s="51"/>
+      <c r="D226" s="51"/>
+      <c r="E226" s="51"/>
+      <c r="F226" s="51"/>
+      <c r="G226" s="52"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="25"/>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
-      <c r="F227" s="46"/>
+      <c r="F227" s="58"/>
       <c r="G227" s="47"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
-      <c r="F228" s="46"/>
+      <c r="F228" s="58"/>
       <c r="G228" s="47"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
-      <c r="F229" s="46"/>
+      <c r="F229" s="58"/>
       <c r="G229" s="47"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.3">
@@ -5360,78 +5360,78 @@
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
-      <c r="F230" s="46"/>
+      <c r="F230" s="58"/>
       <c r="G230" s="47"/>
     </row>
     <row r="231" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B231" s="65" t="s">
+      <c r="B231" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C231" s="66"/>
-      <c r="D231" s="66"/>
-      <c r="E231" s="66"/>
-      <c r="F231" s="66"/>
-      <c r="G231" s="67"/>
+      <c r="C231" s="74"/>
+      <c r="D231" s="74"/>
+      <c r="E231" s="74"/>
+      <c r="F231" s="74"/>
+      <c r="G231" s="75"/>
     </row>
     <row r="232" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B232" s="65" t="s">
+      <c r="B232" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C232" s="66"/>
-      <c r="D232" s="66"/>
-      <c r="E232" s="66"/>
-      <c r="F232" s="66"/>
-      <c r="G232" s="67"/>
+      <c r="C232" s="74"/>
+      <c r="D232" s="74"/>
+      <c r="E232" s="74"/>
+      <c r="F232" s="74"/>
+      <c r="G232" s="75"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B233" s="68" t="s">
+      <c r="B233" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C233" s="69"/>
-      <c r="D233" s="69"/>
-      <c r="E233" s="69"/>
-      <c r="F233" s="69"/>
-      <c r="G233" s="70"/>
+      <c r="C233" s="60"/>
+      <c r="D233" s="60"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="60"/>
+      <c r="G233" s="61"/>
     </row>
     <row r="234" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B234" s="65" t="s">
+      <c r="B234" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C234" s="66"/>
-      <c r="D234" s="66"/>
-      <c r="E234" s="66"/>
-      <c r="F234" s="66"/>
-      <c r="G234" s="67"/>
+      <c r="C234" s="74"/>
+      <c r="D234" s="74"/>
+      <c r="E234" s="74"/>
+      <c r="F234" s="74"/>
+      <c r="G234" s="75"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B235" s="59" t="s">
+      <c r="B235" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C235" s="60"/>
-      <c r="D235" s="60"/>
-      <c r="E235" s="60"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="61"/>
+      <c r="C235" s="54"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="54"/>
+      <c r="F235" s="54"/>
+      <c r="G235" s="55"/>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B236" s="71" t="s">
+      <c r="B236" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C236" s="72"/>
-      <c r="D236" s="72"/>
-      <c r="E236" s="72"/>
-      <c r="F236" s="72"/>
-      <c r="G236" s="73"/>
+      <c r="C236" s="79"/>
+      <c r="D236" s="79"/>
+      <c r="E236" s="79"/>
+      <c r="F236" s="79"/>
+      <c r="G236" s="80"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B237" s="59" t="s">
+      <c r="B237" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C237" s="60"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="61"/>
+      <c r="C237" s="54"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="55"/>
     </row>
     <row r="238" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B238" s="62" t="s">
@@ -5444,14 +5444,14 @@
       <c r="G238" s="64"/>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B239" s="59" t="s">
+      <c r="B239" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C239" s="60"/>
-      <c r="D239" s="60"/>
-      <c r="E239" s="60"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="61"/>
+      <c r="C239" s="54"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="54"/>
+      <c r="G239" s="55"/>
     </row>
     <row r="240" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B240" s="62" t="s">
@@ -5465,134 +5465,115 @@
     </row>
   </sheetData>
   <mergeCells count="262">
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="B180:G180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B237:G237"/>
+    <mergeCell ref="B238:G238"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:G200"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F76:G76"/>
     <mergeCell ref="B239:G239"/>
     <mergeCell ref="B240:G240"/>
     <mergeCell ref="B232:G232"/>
@@ -5617,116 +5598,135 @@
     <mergeCell ref="F222:G222"/>
     <mergeCell ref="F223:G223"/>
     <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
     <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B237:G237"/>
-    <mergeCell ref="B238:G238"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:G200"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B218:G218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
